--- a/de.bund.bfr.knime.openkrise.db/src/org/hsh/bfr/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/org/hsh/bfr/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="228">
   <si>
     <t>Supplier</t>
   </si>
@@ -680,9 +680,6 @@
   </si>
   <si>
     <t>Treatment of product during production</t>
-  </si>
-  <si>
-    <t>Lot Number (from Lot Information)</t>
   </si>
   <si>
     <t>Volume of production</t>
@@ -1160,7 +1157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1654,6 +1651,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1769,7 +1846,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1848,10 +1925,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1960,6 +2033,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1971,31 +2072,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2003,41 +2086,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2072,16 +2126,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2101,28 +2172,60 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="112">
     <cellStyle name="20% - Accent1 2" xfId="4"/>
@@ -2538,7 +2641,7 @@
   <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2562,331 +2665,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
+      <c r="A1" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="A3" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="80" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="78" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="74" t="s">
+      <c r="K4" s="90"/>
+      <c r="L4" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="98" t="s">
+      <c r="M4" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="30"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="34" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="30"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="29"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="A8" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="105"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="29"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="94"/>
+      <c r="A12" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="111"/>
+      <c r="B13" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="105"/>
+      <c r="D13" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="108"/>
+      <c r="L13" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="98" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="59"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="114"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="45"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="120"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="29"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="A17" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="B18" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="81" t="s">
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="60" t="s">
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="62"/>
-      <c r="L18" s="71" t="s">
+      <c r="K18" s="65"/>
+      <c r="L18" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="58" t="s">
-        <v>219</v>
+      <c r="M18" s="66" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="19" t="s">
         <v>82</v>
       </c>
@@ -2896,13 +2997,13 @@
       <c r="F19" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="34" t="s">
         <v>84</v>
       </c>
       <c r="J19" s="22" t="s">
@@ -2911,1301 +3012,1301 @@
       <c r="K19" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="69"/>
-      <c r="M19" s="59"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="67"/>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="109"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="62"/>
     </row>
     <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="109"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="62"/>
     </row>
     <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="109"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="62"/>
     </row>
     <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="109"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="62"/>
     </row>
     <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="109"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="62"/>
     </row>
     <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="109"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="62"/>
     </row>
     <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="109"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="62"/>
     </row>
     <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="109"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="62"/>
     </row>
     <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="109"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="62"/>
     </row>
     <row r="29" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="109"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="62"/>
     </row>
     <row r="30" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="109"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="62"/>
     </row>
     <row r="31" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="109"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="62"/>
     </row>
     <row r="32" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="109"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="62"/>
     </row>
     <row r="33" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="109"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="62"/>
     </row>
     <row r="34" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="109"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="62"/>
     </row>
     <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="109"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="62"/>
     </row>
     <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="109"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="62"/>
     </row>
     <row r="37" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="109"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="62"/>
     </row>
     <row r="38" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="109"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="62"/>
     </row>
     <row r="39" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="109"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="62"/>
     </row>
     <row r="40" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="109"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="62"/>
     </row>
     <row r="41" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="109"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="62"/>
     </row>
     <row r="42" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="109"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="62"/>
     </row>
     <row r="43" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="109"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="62"/>
     </row>
     <row r="44" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="109"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="62"/>
     </row>
     <row r="45" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="109"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="62"/>
     </row>
     <row r="46" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="107"/>
-      <c r="L46" s="107"/>
-      <c r="M46" s="109"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="62"/>
     </row>
     <row r="47" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="109"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="62"/>
     </row>
     <row r="48" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="107"/>
-      <c r="L48" s="107"/>
-      <c r="M48" s="109"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="62"/>
     </row>
     <row r="49" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="109"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="62"/>
     </row>
     <row r="50" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="108"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="107"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="109"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="62"/>
     </row>
     <row r="51" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="107"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="109"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="62"/>
     </row>
     <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="109"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="62"/>
     </row>
     <row r="53" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="107"/>
-      <c r="M53" s="109"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="62"/>
     </row>
     <row r="54" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="107"/>
-      <c r="L54" s="107"/>
-      <c r="M54" s="109"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="62"/>
     </row>
     <row r="55" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="107"/>
-      <c r="L55" s="107"/>
-      <c r="M55" s="109"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="62"/>
     </row>
     <row r="56" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="107"/>
-      <c r="L56" s="107"/>
-      <c r="M56" s="109"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="62"/>
     </row>
     <row r="57" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="107"/>
-      <c r="L57" s="107"/>
-      <c r="M57" s="109"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="62"/>
     </row>
     <row r="58" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="107"/>
-      <c r="L58" s="107"/>
-      <c r="M58" s="109"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="62"/>
     </row>
     <row r="59" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="107"/>
-      <c r="L59" s="107"/>
-      <c r="M59" s="109"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="62"/>
     </row>
     <row r="60" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="107"/>
-      <c r="L60" s="107"/>
-      <c r="M60" s="109"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="62"/>
     </row>
     <row r="61" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107"/>
-      <c r="M61" s="109"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="62"/>
     </row>
     <row r="62" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="107"/>
-      <c r="L62" s="107"/>
-      <c r="M62" s="109"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="62"/>
     </row>
     <row r="63" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="109"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="62"/>
     </row>
     <row r="64" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="107"/>
-      <c r="L64" s="107"/>
-      <c r="M64" s="109"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="62"/>
     </row>
     <row r="65" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="107"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="109"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="62"/>
     </row>
     <row r="66" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="107"/>
-      <c r="L66" s="107"/>
-      <c r="M66" s="109"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="62"/>
     </row>
     <row r="67" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="107"/>
-      <c r="L67" s="107"/>
-      <c r="M67" s="109"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="62"/>
     </row>
     <row r="68" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="107"/>
-      <c r="L68" s="107"/>
-      <c r="M68" s="109"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="62"/>
     </row>
     <row r="69" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
-      <c r="B69" s="107"/>
-      <c r="C69" s="107"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="107"/>
-      <c r="L69" s="107"/>
-      <c r="M69" s="109"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="62"/>
     </row>
     <row r="70" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
-      <c r="B70" s="107"/>
-      <c r="C70" s="107"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="107"/>
-      <c r="L70" s="107"/>
-      <c r="M70" s="109"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="62"/>
     </row>
     <row r="71" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
-      <c r="B71" s="107"/>
-      <c r="C71" s="107"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="107"/>
-      <c r="L71" s="107"/>
-      <c r="M71" s="109"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="62"/>
     </row>
     <row r="72" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
-      <c r="B72" s="107"/>
-      <c r="C72" s="107"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="107"/>
-      <c r="L72" s="107"/>
-      <c r="M72" s="109"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="62"/>
     </row>
     <row r="73" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
-      <c r="B73" s="107"/>
-      <c r="C73" s="107"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="107"/>
-      <c r="L73" s="107"/>
-      <c r="M73" s="109"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="62"/>
     </row>
     <row r="74" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
-      <c r="B74" s="107"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="107"/>
-      <c r="L74" s="107"/>
-      <c r="M74" s="109"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="62"/>
     </row>
     <row r="75" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="107"/>
-      <c r="L75" s="107"/>
-      <c r="M75" s="109"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="62"/>
     </row>
     <row r="76" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
-      <c r="B76" s="107"/>
-      <c r="C76" s="107"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="107"/>
-      <c r="L76" s="107"/>
-      <c r="M76" s="109"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="62"/>
     </row>
     <row r="77" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="108"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="107"/>
-      <c r="L77" s="107"/>
-      <c r="M77" s="109"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="62"/>
     </row>
     <row r="78" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="108"/>
-      <c r="B78" s="107"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="109"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="62"/>
     </row>
     <row r="79" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
-      <c r="B79" s="107"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="107"/>
-      <c r="L79" s="107"/>
-      <c r="M79" s="109"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="62"/>
     </row>
     <row r="80" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="108"/>
-      <c r="B80" s="107"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="107"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="109"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="62"/>
     </row>
     <row r="81" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
-      <c r="B81" s="107"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="107"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="109"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="62"/>
     </row>
     <row r="82" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="108"/>
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="107"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="109"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="62"/>
     </row>
     <row r="83" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="108"/>
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="107"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="109"/>
+      <c r="A83" s="61"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="62"/>
     </row>
     <row r="84" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="108"/>
-      <c r="B84" s="107"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="107"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="109"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="62"/>
     </row>
     <row r="85" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
-      <c r="B85" s="107"/>
-      <c r="C85" s="107"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="107"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="109"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="62"/>
     </row>
     <row r="86" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="107"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="109"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="62"/>
     </row>
     <row r="87" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="108"/>
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="107"/>
-      <c r="L87" s="107"/>
-      <c r="M87" s="109"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="62"/>
     </row>
     <row r="88" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="108"/>
-      <c r="B88" s="107"/>
-      <c r="C88" s="107"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="107"/>
-      <c r="L88" s="107"/>
-      <c r="M88" s="109"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="62"/>
     </row>
     <row r="89" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="108"/>
-      <c r="B89" s="107"/>
-      <c r="C89" s="107"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="107"/>
-      <c r="L89" s="107"/>
-      <c r="M89" s="109"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="62"/>
     </row>
     <row r="90" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
-      <c r="B90" s="107"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="107"/>
-      <c r="L90" s="107"/>
-      <c r="M90" s="109"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="62"/>
     </row>
     <row r="91" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
-      <c r="B91" s="107"/>
-      <c r="C91" s="107"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="107"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="109"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="62"/>
     </row>
     <row r="92" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
-      <c r="B92" s="107"/>
-      <c r="C92" s="107"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="107"/>
-      <c r="L92" s="107"/>
-      <c r="M92" s="109"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="62"/>
     </row>
     <row r="93" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
-      <c r="B93" s="107"/>
-      <c r="C93" s="107"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="107"/>
-      <c r="L93" s="107"/>
-      <c r="M93" s="109"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="62"/>
     </row>
     <row r="94" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="108"/>
-      <c r="B94" s="107"/>
-      <c r="C94" s="107"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="107"/>
-      <c r="L94" s="107"/>
-      <c r="M94" s="109"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="62"/>
     </row>
     <row r="95" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
-      <c r="B95" s="107"/>
-      <c r="C95" s="107"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="107"/>
-      <c r="L95" s="107"/>
-      <c r="M95" s="109"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="60"/>
+      <c r="M95" s="62"/>
     </row>
     <row r="96" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="108"/>
-      <c r="B96" s="107"/>
-      <c r="C96" s="107"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="107"/>
-      <c r="L96" s="107"/>
-      <c r="M96" s="109"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="62"/>
     </row>
     <row r="97" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="108"/>
-      <c r="B97" s="107"/>
-      <c r="C97" s="107"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="107"/>
-      <c r="L97" s="107"/>
-      <c r="M97" s="109"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="62"/>
     </row>
     <row r="98" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="108"/>
-      <c r="B98" s="107"/>
-      <c r="C98" s="107"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="107"/>
-      <c r="L98" s="107"/>
-      <c r="M98" s="109"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="62"/>
     </row>
     <row r="99" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="108"/>
-      <c r="B99" s="107"/>
-      <c r="C99" s="107"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="107"/>
-      <c r="L99" s="107"/>
-      <c r="M99" s="109"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="60"/>
+      <c r="L99" s="60"/>
+      <c r="M99" s="62"/>
     </row>
     <row r="100" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
-      <c r="B100" s="107"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="107"/>
-      <c r="L100" s="107"/>
-      <c r="M100" s="109"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="62"/>
     </row>
     <row r="101" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
-      <c r="B101" s="107"/>
-      <c r="C101" s="107"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="107"/>
-      <c r="L101" s="107"/>
-      <c r="M101" s="109"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="60"/>
+      <c r="M101" s="62"/>
     </row>
     <row r="102" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
-      <c r="B102" s="107"/>
-      <c r="C102" s="107"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="107"/>
-      <c r="L102" s="107"/>
-      <c r="M102" s="109"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="60"/>
+      <c r="M102" s="62"/>
     </row>
     <row r="103" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="108"/>
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="107"/>
-      <c r="L103" s="107"/>
-      <c r="M103" s="109"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="60"/>
+      <c r="L103" s="60"/>
+      <c r="M103" s="62"/>
     </row>
     <row r="104" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
-      <c r="B104" s="107"/>
-      <c r="C104" s="107"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="107"/>
-      <c r="L104" s="107"/>
-      <c r="M104" s="109"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="60"/>
+      <c r="M104" s="62"/>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="105"/>
-      <c r="B105" s="104"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="48"/>
-      <c r="K105" s="104"/>
-      <c r="L105" s="104"/>
-      <c r="M105" s="106"/>
+      <c r="A105" s="58"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="47"/>
+      <c r="K105" s="57"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="59"/>
     </row>
     <row r="106" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K106" s="29"/>
+      <c r="K106" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -4240,12 +4341,9 @@
     <mergeCell ref="G18:I18"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M20:M37">
-      <formula1>$A$15:$A$15</formula1>
-    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L16"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M15">
-      <formula1>$M$6</formula1>
+      <formula1>$C$6</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D15 D20:D105 G20:G105 G15 G6">
       <formula1>1</formula1>
@@ -4265,6 +4363,9 @@
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 I6 F15 I15 F20:F105">
       <formula1>1900</formula1>
       <formula2>3000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M20:M105">
+      <formula1>$C$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4360,7 +4461,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>394</v>
       </c>
       <c r="B2" t="s">
@@ -4390,7 +4491,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>346</v>
       </c>
       <c r="B3" t="s">
@@ -4420,7 +4521,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>1346</v>
       </c>
       <c r="B4" t="s">
@@ -4450,7 +4551,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>640</v>
       </c>
       <c r="B5" t="s">
@@ -4480,7 +4581,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>463</v>
       </c>
       <c r="B6" t="s">
@@ -4510,7 +4611,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>598</v>
       </c>
       <c r="B7" t="s">
@@ -4540,7 +4641,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>679</v>
       </c>
       <c r="B8" t="s">
@@ -4570,7 +4671,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>20</v>
       </c>
       <c r="B9" t="s">
@@ -4600,7 +4701,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>102</v>
       </c>
       <c r="B10" t="s">
@@ -4630,7 +4731,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>754</v>
       </c>
       <c r="B11" t="s">
@@ -4660,7 +4761,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>354</v>
       </c>
       <c r="B12" t="s">
@@ -4690,7 +4791,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>642</v>
       </c>
       <c r="B13" t="s">
@@ -4720,7 +4821,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>749</v>
       </c>
       <c r="B14" t="s">
@@ -4750,7 +4851,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>1</v>
       </c>
       <c r="B15" t="s">
@@ -4780,7 +4881,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -4810,7 +4911,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>750</v>
       </c>
       <c r="B17" t="s">
@@ -4840,7 +4941,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>236</v>
       </c>
       <c r="B18" t="s">
@@ -4870,7 +4971,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>740</v>
       </c>
       <c r="B19" t="s">
@@ -4900,7 +5001,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>6</v>
       </c>
       <c r="B20" t="s">
@@ -4930,7 +5031,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>451</v>
       </c>
       <c r="B21" t="s">
@@ -4960,7 +5061,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>8</v>
       </c>
       <c r="B22" t="s">
@@ -4990,7 +5091,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <v>4</v>
       </c>
       <c r="B23" t="s">
@@ -5020,7 +5121,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>261</v>
       </c>
       <c r="B24" t="s">
@@ -5050,7 +5151,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>3</v>
       </c>
       <c r="B25" t="s">
@@ -5080,7 +5181,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>742</v>
       </c>
       <c r="B26" t="s">
@@ -5311,1356 +5412,1356 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="54"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="54"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="54"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="54"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="54"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="54"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="54"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="54"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="54"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="54"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="54"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="54"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="54"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="54"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="54"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="54"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="54"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="54"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="54"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="54"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="54"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="54"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="54"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="54"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="54"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="54"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="54"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="54"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="54"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="54"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="54"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="54"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="54"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="54"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="54"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="54"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="54"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="54"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="54"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="54"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="54"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="54"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="54"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="54"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="54"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="54"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="54"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="54"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="54"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="53"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="54"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="53"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="54"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="53"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="54"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="53"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="54"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="53"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="54"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="53"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="54"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="53"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="54"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="53"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="54"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="53"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="54"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="53"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="54"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="53"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="54"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="53"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="54"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="53"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="54"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="53"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="54"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="53"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="54"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="53"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="54"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="53"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="54"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="53"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="54"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="53"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="54"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="53"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="54"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="53"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="54"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="53"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="54"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="53"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="54"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="53"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="54"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="53"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="54"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="54"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="54"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="53"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="54"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="53"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="54"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="53"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="54"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="53"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="54"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="53"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="54"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="53"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="54"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="53"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="54"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="53"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="54"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="53"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="54"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="53"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="54"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="53"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="54"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="53"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="54"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="53"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="54"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="53"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="54"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="53"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="54"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="53"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="54"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="53"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="54"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="53"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="54"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="53"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="54"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="53"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="53"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="54"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="53"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="54"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="53"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="54"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="53"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="54"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="53"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="54"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="53"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="54"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="53"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="53"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="54"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="53"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="54"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="53"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="53"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="54"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="53"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="53"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="54"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="53"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
-      <c r="B112" s="36"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="54"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="53"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="54"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="53"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="54"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="53"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="54"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="53"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="53"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="54"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="53"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="53"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="36"/>
-      <c r="G117" s="54"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="53"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="53"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="54"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="53"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="36"/>
-      <c r="G119" s="54"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="53"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="54"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="53"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="54"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="53"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="54"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="53"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="54"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="53"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
-      <c r="B124" s="36"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="54"/>
+      <c r="A124" s="52"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="53"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="53"/>
-      <c r="B125" s="36"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="54"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="53"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="53"/>
-      <c r="B126" s="36"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="54"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="53"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
-      <c r="B127" s="36"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="54"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="53"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="53"/>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="54"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="53"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="53"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="54"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="53"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="53"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="54"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="53"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="53"/>
-      <c r="B131" s="36"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="36"/>
-      <c r="G131" s="54"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="53"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
-      <c r="B132" s="36"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="54"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="53"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="36"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="54"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="53"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
-      <c r="B134" s="36"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="54"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="53"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
-      <c r="B135" s="36"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="54"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="53"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
-      <c r="B136" s="36"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="54"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="53"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="53"/>
-      <c r="B137" s="36"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="54"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="53"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
-      <c r="B138" s="36"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="54"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="53"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
-      <c r="B139" s="36"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="36"/>
-      <c r="G139" s="54"/>
+      <c r="A139" s="52"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="35"/>
+      <c r="G139" s="53"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
-      <c r="B140" s="36"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="54"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="53"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
-      <c r="B141" s="36"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="54"/>
+      <c r="A141" s="52"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="53"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="53"/>
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36"/>
-      <c r="G142" s="54"/>
+      <c r="A142" s="52"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="53"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="36"/>
-      <c r="G143" s="54"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="53"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="53"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="54"/>
+      <c r="A144" s="52"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="53"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="54"/>
+      <c r="A145" s="52"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="53"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="53"/>
-      <c r="B146" s="36"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="36"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="36"/>
-      <c r="G146" s="54"/>
+      <c r="A146" s="52"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="53"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
-      <c r="B147" s="36"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="54"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="53"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
-      <c r="B148" s="36"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="36"/>
-      <c r="G148" s="54"/>
+      <c r="A148" s="52"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="35"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="53"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="53"/>
-      <c r="B149" s="36"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="36"/>
-      <c r="E149" s="36"/>
-      <c r="F149" s="36"/>
-      <c r="G149" s="54"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="53"/>
     </row>
     <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="55"/>
-      <c r="B150" s="56"/>
-      <c r="C150" s="56"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="57"/>
+      <c r="A150" s="54"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="55"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55"/>
+      <c r="G150" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6806,7 +6907,7 @@
       <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6820,7 +6921,7 @@
       <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7097,7 +7198,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
